--- a/biology/Botanique/Forme_(botanique)/Forme_(botanique).xlsx
+++ b/biology/Botanique/Forme_(botanique)/Forme_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique et en mycologie, la forme (du latin forma, souvent abrégé en « fo. » ou « f. ») est une entité ou taxon de rang inférieur à l’espèce et à la variété.
 </t>
@@ -511,7 +523,9 @@
           <t>Aspect taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forme étant la plus petite coupure taxinomique dans la systématique et la classification du monde vivant, la plus proche de « l’individu » en présence.
 Par exemple, quand nous disons que nous avons dans notre assiette la « forme blanche » du Champignon de Paris, nous faisons empiriquement la même division que le mycologue qui l’a nommée par le trinôme Agaricus bisporus fo. alba.
@@ -545,7 +559,9 @@
           <t>Aspect nomenclatural</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première fois qu’une espèce se voit attribuer une division au rang de forme, il y a réciproquement et automatiquement création d’une forme autonyme pour désigner l’espèce dont elle a été séparée au sens strict (stricto sensu), à présent considérée comme la « forme type », désignée par le trinôme : Agaricus bisporus fo. bisporus.
 </t>
@@ -576,16 +592,18 @@
           <t>Autres rangs taxinomiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les rangs taxonomiques[1] utilisés en systématique pour la classification hiérarchique du monde vivant sont les suivants (par ordre décroissant) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rangs taxonomiques utilisés en systématique pour la classification hiérarchique du monde vivant sont les suivants (par ordre décroissant) :
 Super-règne, Empire, Domaine (Superregnum, Imperium, Dominium)
 Règne (Regnum)
 Sous-règne (Subregnum)
 Rameau (Ramus, « branch » en anglais)
 Infra-règne (Infraregnum)
 Super-embranchement, Super-division (Superphylum, Superdivisio)
-Embranchement, Division (Phylum, Divisio)[2]
+Embranchement, Division (Phylum, Divisio)
 Sous-embranchement, Sous-division (Subphylum, Subdivisio)
 Infra-embranchement (Infraphylum)
 Micro-embranchement (Microphylum)
@@ -608,9 +626,9 @@
 Section (Sectio)
 Sous-section (Subsectio)
 Espèce (Species)
-sous-espèce (subspecies) - dernier rang zoologique officiel[3]
-variété (varietas) - race étant un rang zoologique informel[3]
-sous-variété (subvarietas) - sous-race étant un rang zoologique informel[3]
+sous-espèce (subspecies) - dernier rang zoologique officiel
+variété (varietas) - race étant un rang zoologique informel
+sous-variété (subvarietas) - sous-race étant un rang zoologique informel
 forme (forma) dernier rang en mycologie - forme étant un rang zoologique informel
 sous-forme (subforma)
 </t>
